--- a/企画書　仕様書.xlsx
+++ b/企画書　仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81906\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81906\OneDrive\デスクトップ\11Taguchi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE23688-F32B-422C-9D0E-E131330830E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B69016F-5A5C-4078-97F0-B08D97E03D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8244" yWindow="1788" windowWidth="14172" windowHeight="9108" activeTab="1" xr2:uid="{5EFBAE34-C689-442E-BEF8-5B1CAB09E23D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="14172" windowHeight="9108" activeTab="1" xr2:uid="{5EFBAE34-C689-442E-BEF8-5B1CAB09E23D}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -80,16 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.ゴールに行くまで様々なギミックがある。</t>
-    <rPh sb="6" eb="7">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サマザマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.穴に落ちるとゲームオーバー。</t>
     <rPh sb="2" eb="3">
       <t>アナ</t>
@@ -147,9 +137,285 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面外に落ちたらゲームオーバー</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間内にゴールできないとゲームオーバー</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)妨害キャラ</t>
+    <rPh sb="3" eb="5">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>衝突</t>
     <rPh sb="0" eb="2">
       <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害キャラに当たると弾かれる</t>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ上をうろうろしている</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーをはじく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害少なめの簡単なステージ</t>
+    <rPh sb="0" eb="3">
+      <t>ボウガイスク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害多めのちょっと難しめのステージ</t>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの仕様</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過した時間が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面、ステージの切り替え</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とし穴</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを落とす</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ゴールに行くまでステージギミックがある。</t>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑る床</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが滑る</t>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまに上から降ってくるプレイヤーを５秒足止め</t>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アシド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.穴に落ちるとゲームオーバー落ちないように気を付けよう</t>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ゴールしたタイムで競ういあう慎重になりすぎないように</t>
+    <rPh sb="11" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ステージギミックに気を付けながらゴールを目指す</t>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール(週)</t>
+    <rPh sb="7" eb="8">
+      <t>シュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,12 +441,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,11 +469,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -219,6 +494,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11974</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14268B09-17F6-4BA1-8CC1-F7E2033329AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150620" y="3665220"/>
+          <a:ext cx="3905794" cy="2278380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1849181B-4953-4747-AD1C-14A2C781F76E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -563,80 +893,291 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6F7E61-4D69-405A-A432-422ABD90556B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" customWidth="1"/>
+    <col min="3" max="3" width="41.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
